--- a/biology/Botanique/Gentiana_occidentalis/Gentiana_occidentalis.xlsx
+++ b/biology/Botanique/Gentiana_occidentalis/Gentiana_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana occidentalis, la gentiane occidentale, est une espèce de plante herbacée de la famille des Gentianaceae.
 Il s'agit d'une plante des Pyrénées et des Monts Cantabriques, d'une dizaine de cm de hauteur, qui pousse sur les pelouses alpines et les étendues rocheuses, entre 800 et 3 100 m d'altitude.
